--- a/OnBoard/output/trust/bio/Bio_Trust_1.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q245"/>
+  <dimension ref="A1:Q244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F239">
@@ -12301,22 +12301,27 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>-1</v>
+        <v>267</v>
       </c>
       <c r="I239">
-        <v>-1</v>
+        <v>196</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L239">
         <v>0</v>
       </c>
-      <c r="P239" t="inlineStr">
-        <is>
-          <t>NA w inferred l inferred</t>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>SA010</t>
         </is>
       </c>
     </row>
@@ -12338,7 +12343,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -12353,19 +12358,19 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I240">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L240">
@@ -12373,7 +12378,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>SA010</t>
+          <t>SA011</t>
         </is>
       </c>
     </row>
@@ -12400,7 +12405,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F241">
@@ -12410,19 +12415,19 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="I241">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L241">
@@ -12430,7 +12435,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>SA011</t>
+          <t>SS8368</t>
         </is>
       </c>
     </row>
@@ -12452,12 +12457,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F242">
@@ -12467,28 +12472,18 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="I242">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L242">
         <v>0</v>
-      </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>SS8368</t>
-        </is>
       </c>
     </row>
     <row r="243">
@@ -12514,7 +12509,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F243">
@@ -12524,10 +12519,10 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I243">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -12571,10 +12566,10 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I244">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -12582,53 +12577,6 @@
         </is>
       </c>
       <c r="L244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>SOLEMON2025</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>17</v>
-      </c>
-      <c r="I245">
-        <v>8</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L245">
         <v>0</v>
       </c>
     </row>
